--- a/output/fit_clients/fit_round_266.xlsx
+++ b/output/fit_clients/fit_round_266.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2187759373.872358</v>
+        <v>2423500648.589154</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08717390814119574</v>
+        <v>0.0964638875812432</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04215375652719854</v>
+        <v>0.03076493103851458</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1093879707.80229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1600377815.28852</v>
+        <v>1977173275.449126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1703705492586271</v>
+        <v>0.1627232766303812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04734744064186115</v>
+        <v>0.03758430253003506</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>800188885.8058646</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3451937080.236672</v>
+        <v>3186016009.054949</v>
       </c>
       <c r="F4" t="n">
-        <v>0.160531903678685</v>
+        <v>0.1191371736130172</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03647478658838423</v>
+        <v>0.02499320455444146</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>96</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1725968515.465728</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4213840642.13493</v>
+        <v>3878863549.819276</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08806327574664492</v>
+        <v>0.1057693239576653</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03572981564610908</v>
+        <v>0.03546323515726234</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2106920310.630273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2815537098.193294</v>
+        <v>2732099552.591839</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0916973814103767</v>
+        <v>0.1140237717779309</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05479242398362657</v>
+        <v>0.05328730721132664</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>44</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1407768490.423437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2064006513.919413</v>
+        <v>1908447343.666024</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06200726009477055</v>
+        <v>0.09677675474985145</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03221608916568019</v>
+        <v>0.04577157738785152</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>84</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1032003311.920656</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3271827290.282047</v>
+        <v>3566889474.909491</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1655887536468194</v>
+        <v>0.1782658874423045</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02585329130792455</v>
+        <v>0.03091901207161234</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>84</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1635913730.437976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1702179063.782039</v>
+        <v>1691621448.068065</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1312460294987757</v>
+        <v>0.1737989537074105</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03586917300056927</v>
+        <v>0.02708639225654252</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>851089599.8154042</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5371865405.995796</v>
+        <v>3799382498.791281</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1323276034203965</v>
+        <v>0.1956939005593433</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0440963165786632</v>
+        <v>0.03805210606218517</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>112</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2685932831.13354</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3699631889.012914</v>
+        <v>3698611889.115307</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1406791869416476</v>
+        <v>0.1624051144581869</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04839172806197359</v>
+        <v>0.04036892306992724</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>110</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1849815936.20578</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2592933721.921112</v>
+        <v>2854594658.412942</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1706438650660581</v>
+        <v>0.1498731550355117</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05389942691390379</v>
+        <v>0.04227628465261109</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>90</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1296466841.708851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4137542234.798387</v>
+        <v>4057759619.470396</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08133930413869297</v>
+        <v>0.09860773958009229</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03057779304038109</v>
+        <v>0.02173222697004638</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>89</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2068771165.340625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3239651945.807164</v>
+        <v>3073861368.781902</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1745083826338051</v>
+        <v>0.1704615967843434</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03419242024864027</v>
+        <v>0.02969645586963198</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>85</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1619825989.977048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1446912617.274328</v>
+        <v>1451719787.922027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09085459239411836</v>
+        <v>0.0742488447864719</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04059539116861845</v>
+        <v>0.041853609458866</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>723456382.0996737</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2409013921.887437</v>
+        <v>1933178951.185716</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1126364601135756</v>
+        <v>0.07349007804870986</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04838775744345566</v>
+        <v>0.03774969109605925</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>49</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1204506999.895848</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4452438144.591332</v>
+        <v>4516316082.343085</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1668686579238194</v>
+        <v>0.113031227240505</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04242519680642389</v>
+        <v>0.03581794172286487</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>78</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2226219084.518429</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2485583781.208638</v>
+        <v>3565613324.071099</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1592869339502473</v>
+        <v>0.1494910257478639</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02983465975368071</v>
+        <v>0.03448636139593744</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>87</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1242791958.081331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1172187246.621048</v>
+        <v>1023162468.977067</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1751151838042224</v>
+        <v>0.1529920386987959</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02149999835552004</v>
+        <v>0.02420481787492794</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>586093694.4602368</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2613029781.041118</v>
+        <v>2276060666.655993</v>
       </c>
       <c r="F20" t="n">
-        <v>0.09986979450820373</v>
+        <v>0.1419091524115206</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02077756088032741</v>
+        <v>0.0283497907157809</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>40</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1306514851.551546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2075487830.665333</v>
+        <v>2590430481.84864</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07211475205703127</v>
+        <v>0.07283749170396292</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04106408765365607</v>
+        <v>0.03763951705963917</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>21</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1037743944.079964</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2641906243.288851</v>
+        <v>2770674814.571677</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09589226478999016</v>
+        <v>0.1205538490209981</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05585202536656195</v>
+        <v>0.04930520031155233</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>75</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1320953204.61694</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1382934691.23563</v>
+        <v>1533882150.742133</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1598158739548835</v>
+        <v>0.1510935840487847</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05323955862097692</v>
+        <v>0.04849277163643399</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>691467351.2793561</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2547071964.391889</v>
+        <v>2762060260.155515</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1330620876714195</v>
+        <v>0.1212081985494155</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03197315116112111</v>
+        <v>0.03210061242881836</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>78</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1273536047.89451</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1057929516.904668</v>
+        <v>1101201053.559942</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07918702086833375</v>
+        <v>0.1078961025769614</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01998342987720775</v>
+        <v>0.02767896786084006</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>528964809.1231959</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>950906243.1033937</v>
+        <v>923535132.1139145</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1166505913195578</v>
+        <v>0.1084191723069588</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03218158136838324</v>
+        <v>0.03635025311422927</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>475453081.6222906</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4353955599.37803</v>
+        <v>2992222832.686922</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1304335700875978</v>
+        <v>0.1289632316318749</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0168276050011321</v>
+        <v>0.02439636455291555</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2176977792.284519</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3014593478.317695</v>
+        <v>3642545424.834753</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1358581586833864</v>
+        <v>0.1171630181010178</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03543691641428116</v>
+        <v>0.03326281710366073</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>88</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1507296751.647909</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4769188842.316193</v>
+        <v>3647392916.818272</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1248337247007349</v>
+        <v>0.1287186541443808</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04213855161490528</v>
+        <v>0.04450228328142878</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>118</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2384594384.689529</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1749670630.028394</v>
+        <v>2290627382.191011</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08589351913791514</v>
+        <v>0.1107741614369122</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02559784701103755</v>
+        <v>0.03169188988253336</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>874835323.943395</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1199785990.131785</v>
+        <v>1343672536.919675</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1102134950507322</v>
+        <v>0.06759925927917682</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04793565832723885</v>
+        <v>0.0377600294127784</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>599892946.5806532</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1333267172.505659</v>
+        <v>1391427622.429285</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09794970325394699</v>
+        <v>0.1189649952147952</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02670473580279467</v>
+        <v>0.02607250860049325</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>666633620.0627604</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2347868874.966296</v>
+        <v>2481391924.922301</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1491728918477089</v>
+        <v>0.1643909623361741</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05739634893892877</v>
+        <v>0.06093196446962763</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>81</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1173934488.627773</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1374079324.85835</v>
+        <v>949561086.7823299</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1166694864921826</v>
+        <v>0.1143086030079245</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02451174567887195</v>
+        <v>0.02442010951697209</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>687039638.8996725</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1354504146.102312</v>
+        <v>838448254.8525199</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1122753329699091</v>
+        <v>0.114925871080152</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04179788117409576</v>
+        <v>0.04500342661685817</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>677252013.9070712</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2303714452.360505</v>
+        <v>2893566284.082449</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1519799178569281</v>
+        <v>0.1192187792851055</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02690416623606933</v>
+        <v>0.01923344028857787</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>66</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1151857263.889081</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2035597012.422979</v>
+        <v>2066287393.06463</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1069585733182114</v>
+        <v>0.09899774484144942</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04134670310218554</v>
+        <v>0.04268112131121487</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>70</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1017798538.391475</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2154383150.683689</v>
+        <v>1636241115.375956</v>
       </c>
       <c r="F38" t="n">
-        <v>0.11173855909017</v>
+        <v>0.105885019307074</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02896795898548942</v>
+        <v>0.03283555880974254</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1077191532.157889</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1471810514.27556</v>
+        <v>1763297645.464743</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1522912789507186</v>
+        <v>0.1585368742172159</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03131204757287123</v>
+        <v>0.02605780727906723</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>735905331.8778391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1568450249.099916</v>
+        <v>1788326791.024787</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1309484180672015</v>
+        <v>0.1143282259537095</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04945188749113544</v>
+        <v>0.05840304890744212</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>784225073.6185701</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2919610319.350913</v>
+        <v>2010698854.319157</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1020420088319957</v>
+        <v>0.1417462274241876</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03255107056078298</v>
+        <v>0.04321373847875228</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>63</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1459805143.916204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4026106923.992707</v>
+        <v>2828698891.476202</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1075854858584238</v>
+        <v>0.1223512117560192</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03657770822301981</v>
+        <v>0.03501834034211161</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2013053493.056642</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1888422692.820464</v>
+        <v>2724462067.299218</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1235124455524406</v>
+        <v>0.1895323065409596</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01887075275849844</v>
+        <v>0.02169283903689197</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>95</v>
-      </c>
-      <c r="J43" t="n">
-        <v>944211456.5505264</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1863900604.100705</v>
+        <v>2338757727.958511</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06631650794251898</v>
+        <v>0.06737572497044735</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02277835230767166</v>
+        <v>0.02485853454422907</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>931950381.2236297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2054663550.938297</v>
+        <v>1988782623.845523</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1270195779133377</v>
+        <v>0.1713485504143855</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04179565065927413</v>
+        <v>0.03818643787655947</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1027331771.878021</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3997007906.758906</v>
+        <v>4761505665.431642</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1719396638388178</v>
+        <v>0.1179660361418332</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0370654227860273</v>
+        <v>0.04415549130373463</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>94</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1998503922.771715</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3405059802.442705</v>
+        <v>4784683535.677327</v>
       </c>
       <c r="F47" t="n">
-        <v>0.180841607678207</v>
+        <v>0.1790790591499927</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05898186494889401</v>
+        <v>0.04615810873381047</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>71</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1702529866.626857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3003725433.16882</v>
+        <v>3961880443.726554</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09213409296182687</v>
+        <v>0.08492558029676089</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03421117052052702</v>
+        <v>0.03703162264438686</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>91</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1501862808.844442</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1725203712.085511</v>
+        <v>1725137597.0287</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1180718401356584</v>
+        <v>0.1229474031704576</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02990608898530867</v>
+        <v>0.03438040085858704</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>862601853.0486255</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2584017639.409613</v>
+        <v>3402459554.450478</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1117550648568379</v>
+        <v>0.1389842785796955</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05309549984914731</v>
+        <v>0.04236005170479838</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>90</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1292008909.14124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1109843951.453001</v>
+        <v>1262764735.305619</v>
       </c>
       <c r="F51" t="n">
-        <v>0.147931327229353</v>
+        <v>0.1546427985126103</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05224198423825956</v>
+        <v>0.05382883551972676</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>554922041.8734725</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5145129394.992758</v>
+        <v>4412155687.068713</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09011053145650719</v>
+        <v>0.08636058356893973</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04077163838697358</v>
+        <v>0.04315387178113466</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>109</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2572564686.57287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2547919587.251309</v>
+        <v>2514518160.05786</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1975106910632022</v>
+        <v>0.1738023718643724</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02955005037277176</v>
+        <v>0.02433085062706674</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>76</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1273959857.29108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4240646285.829988</v>
+        <v>4925723266.703878</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1560464119950292</v>
+        <v>0.1267306188624561</v>
       </c>
       <c r="G54" t="n">
-        <v>0.050713734353163</v>
+        <v>0.05238388973640452</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2120323225.892464</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3511330132.069726</v>
+        <v>3050229339.532681</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1778108935905092</v>
+        <v>0.1436056602504572</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02423618668583645</v>
+        <v>0.02770194076653669</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1755665019.37343</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1211727244.999367</v>
+        <v>1232024106.48725</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1590981453176951</v>
+        <v>0.1566466333097694</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04684550122942162</v>
+        <v>0.03563215693664661</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>605863707.4885342</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2890781595.207242</v>
+        <v>3244128046.223754</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1403814134599368</v>
+        <v>0.1241050705967207</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02407347569231487</v>
+        <v>0.0178604036586934</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>85</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1445390792.828228</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1328875484.479987</v>
+        <v>1375250035.549718</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1254903684361922</v>
+        <v>0.1799498079774013</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02804080133668832</v>
+        <v>0.03834056059270032</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>664437788.9812951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4254896845.901145</v>
+        <v>3261599234.196702</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09376729908804976</v>
+        <v>0.1067178744307848</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03466214133121775</v>
+        <v>0.03560944085713858</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2127448386.596936</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3374242488.80014</v>
+        <v>2591992553.250096</v>
       </c>
       <c r="F60" t="n">
-        <v>0.174956715527676</v>
+        <v>0.1820753503520945</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03071326951657642</v>
+        <v>0.02186502816382528</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>82</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1687121354.002942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2404733512.479867</v>
+        <v>2243732437.559305</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1573106612344521</v>
+        <v>0.1506997168232509</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03081761352962554</v>
+        <v>0.02179672950418541</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>92</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1202366792.842144</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2114895396.895601</v>
+        <v>2098771991.190265</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1908100349429564</v>
+        <v>0.1325250795812342</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04118578516928938</v>
+        <v>0.03116719403304108</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1057447773.722079</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4205682600.52616</v>
+        <v>4567304659.615272</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09395440571384997</v>
+        <v>0.06498331686124441</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04225883111475155</v>
+        <v>0.0289866308779534</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>78</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2102841353.465432</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5470388042.11539</v>
+        <v>4078654641.570498</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1616908128936033</v>
+        <v>0.1414018331143864</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02991432950521257</v>
+        <v>0.02396694230348874</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>83</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2735194160.328097</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5000673400.488877</v>
+        <v>5436244137.523627</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1650300662219199</v>
+        <v>0.1362813784524907</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02542922489264272</v>
+        <v>0.02505832171299299</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>97</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2500336659.108923</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5618631853.290628</v>
+        <v>3946147876.001111</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1375038765262017</v>
+        <v>0.1536519804039617</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05110430181465511</v>
+        <v>0.04919025234154971</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>78</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2809315986.93117</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2476704734.73335</v>
+        <v>2282970338.585585</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09009191342099281</v>
+        <v>0.07256403842029431</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04081062689593202</v>
+        <v>0.04351322729945714</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>87</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1238352429.895276</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3784957495.144631</v>
+        <v>5550166299.792178</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1261053473052483</v>
+        <v>0.1147101693646262</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03339416664263261</v>
+        <v>0.04087640750291036</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1892478730.321271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2452013153.142478</v>
+        <v>2374510044.863802</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1570841944603903</v>
+        <v>0.1405875936842984</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0416603730507123</v>
+        <v>0.05966011864910929</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1226006639.966503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3708634005.453029</v>
+        <v>2792580872.111128</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0772549572602302</v>
+        <v>0.0725632096075908</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04237808717202538</v>
+        <v>0.03627007695928819</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>76</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1854317025.838602</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4405411471.165981</v>
+        <v>4771266272.335525</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1219150022459078</v>
+        <v>0.1720615070147721</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02595453216573927</v>
+        <v>0.02578726100758926</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>97</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2202705796.928789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1418888649.846426</v>
+        <v>2272348148.760769</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08174647347060338</v>
+        <v>0.09868548922717667</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04393684807506547</v>
+        <v>0.0498480175958006</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>709444364.9569733</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2763844449.049898</v>
+        <v>2340714690.254939</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07925217333792339</v>
+        <v>0.1038904102069248</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03365706779217489</v>
+        <v>0.0428001143181309</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>101</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1381922242.132253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2447947868.419888</v>
+        <v>3476097947.571762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1740087614393068</v>
+        <v>0.1538073044680658</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03494989727628645</v>
+        <v>0.03233959384519977</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>90</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1223974047.292653</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2130532020.966178</v>
+        <v>2084604187.907614</v>
       </c>
       <c r="F75" t="n">
-        <v>0.15693494559409</v>
+        <v>0.1482457551475021</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02645721953942214</v>
+        <v>0.03478780602411881</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1065265962.426793</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3415952963.070115</v>
+        <v>3330798284.528193</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1227077888214664</v>
+        <v>0.09759165853205243</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02249536071159118</v>
+        <v>0.03244331348460246</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1707976441.774628</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1431230723.927181</v>
+        <v>2246325434.962226</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1488659054603167</v>
+        <v>0.1587800004632027</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03093415032289586</v>
+        <v>0.01955912776718539</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>715615339.4649628</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3783618403.792875</v>
+        <v>3782861183.71735</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1049086161567514</v>
+        <v>0.1371890355657529</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04789118845586091</v>
+        <v>0.03777127816157334</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>93</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1891809183.121727</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1567727262.763483</v>
+        <v>1622374016.843514</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1702949576008848</v>
+        <v>0.1417637539376064</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03963796247674519</v>
+        <v>0.03121278239366339</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>783863677.428902</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3433829851.052728</v>
+        <v>5048466290.570925</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1105672060912875</v>
+        <v>0.07965539384689413</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03282751549816405</v>
+        <v>0.03694950351465354</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>55</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1716914896.828027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3361081113.319031</v>
+        <v>3503460672.127611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1136164157459016</v>
+        <v>0.08352919264469533</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02999592073294616</v>
+        <v>0.02760191175216434</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>59</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1680540496.122806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3941894043.067837</v>
+        <v>3610884168.465743</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2014321505580031</v>
+        <v>0.2025425955202881</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02271434637406304</v>
+        <v>0.02946526833010365</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>94</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1970947064.545705</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2468321025.756768</v>
+        <v>1885972563.392144</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1075973322192498</v>
+        <v>0.1269670628158673</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03921841681320086</v>
+        <v>0.04344346067477756</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1234160556.492984</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2375043531.25854</v>
+        <v>2022293041.363543</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08950477706524848</v>
+        <v>0.113554509485734</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04704372000515244</v>
+        <v>0.04801729697631465</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1187521715.685267</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3016663875.529252</v>
+        <v>3173112247.985492</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1428048371092858</v>
+        <v>0.1773096344824572</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05633590430378078</v>
+        <v>0.03670496504472424</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>100</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1508331999.741723</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1979732396.688427</v>
+        <v>1691170411.251753</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1152169572082951</v>
+        <v>0.1697665944730485</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02643037225134551</v>
+        <v>0.02158388495197611</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>35</v>
-      </c>
-      <c r="J86" t="n">
-        <v>989866223.1291301</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1475208200.366034</v>
+        <v>1237533447.609218</v>
       </c>
       <c r="F87" t="n">
-        <v>0.133064801343006</v>
+        <v>0.1871966463941281</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02966478842624851</v>
+        <v>0.04162350250546438</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>737604226.2921247</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2787908451.163321</v>
+        <v>3193037716.818972</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1347777808886937</v>
+        <v>0.1302952293461592</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03779921527366391</v>
+        <v>0.03500182801284889</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>105</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1393954235.063706</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2444886012.57602</v>
+        <v>3007736333.406355</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1006070100353193</v>
+        <v>0.1427705366170598</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02909796252892214</v>
+        <v>0.04065096919909344</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>90</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1222443085.08565</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1387551331.28267</v>
+        <v>1329377842.461214</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08724823819605471</v>
+        <v>0.1263530468783235</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05015971863755649</v>
+        <v>0.04649435137701358</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>693775623.7804127</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1324911686.12705</v>
+        <v>1950243310.895231</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1587883083886578</v>
+        <v>0.1305619266707504</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05511016098322984</v>
+        <v>0.05384219869010854</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>662455905.3040172</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2456910784.846702</v>
+        <v>2203055553.925585</v>
       </c>
       <c r="F92" t="n">
-        <v>0.104968688400701</v>
+        <v>0.06697616056983195</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04164337765608408</v>
+        <v>0.03356815630164184</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1228455373.106315</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3675210733.545677</v>
+        <v>4036395377.103082</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1135658108824596</v>
+        <v>0.1382476957235067</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0365311352924401</v>
+        <v>0.03711517757121697</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1837605388.388121</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1774772092.50669</v>
+        <v>1733533985.463397</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1156829149948677</v>
+        <v>0.1282162431711415</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02624347700003662</v>
+        <v>0.03346531854308545</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>887386015.2550418</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2641116811.006829</v>
+        <v>3252888801.017961</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1148820324136382</v>
+        <v>0.1186146386199605</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03590366993412762</v>
+        <v>0.04053940677037969</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>65</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1320558431.313768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1553364797.97412</v>
+        <v>2056650815.726779</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1090355898014471</v>
+        <v>0.1178343241777289</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04362889054718772</v>
+        <v>0.02885955278029477</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>776682433.6405047</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3679953224.154474</v>
+        <v>4049256544.140062</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1252933565665321</v>
+        <v>0.1289301389537232</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02858118880387119</v>
+        <v>0.02215108389438929</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>86</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1839976642.713704</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2976055061.753189</v>
+        <v>3315495105.936512</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09764742473805547</v>
+        <v>0.119924979881139</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02092267594494619</v>
+        <v>0.02041703514032455</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1488027513.933019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3266788294.010527</v>
+        <v>2831847968.240033</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1163747962485908</v>
+        <v>0.1319836550881962</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03225203590487252</v>
+        <v>0.02295408456963287</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>83</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1633394152.326566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4790378739.534006</v>
+        <v>3578592394.477774</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1412695474662137</v>
+        <v>0.1523387030459517</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02805029917951181</v>
+        <v>0.02629448671594668</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>84</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2395189503.536261</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2328067346.901145</v>
+        <v>2493530382.383334</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1588876089892947</v>
+        <v>0.1623607758178082</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03834063227042555</v>
+        <v>0.04823563237573826</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>106</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1164033673.710462</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_266.xlsx
+++ b/output/fit_clients/fit_round_266.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2423500648.589154</v>
+        <v>2307299981.999828</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0964638875812432</v>
+        <v>0.0944458301030295</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03076493103851458</v>
+        <v>0.03057039478796623</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1977173275.449126</v>
+        <v>2019239186.874041</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1627232766303812</v>
+        <v>0.1584038982008777</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03758430253003506</v>
+        <v>0.04767297742928874</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3186016009.054949</v>
+        <v>5147343589.862838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1191371736130172</v>
+        <v>0.1023446462097626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02499320455444146</v>
+        <v>0.03160512594346435</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3878863549.819276</v>
+        <v>4115615132.411767</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1057693239576653</v>
+        <v>0.09074367692377462</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03546323515726234</v>
+        <v>0.0376076562041807</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2732099552.591839</v>
+        <v>2595150417.285065</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1140237717779309</v>
+        <v>0.1055942082266007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05328730721132664</v>
+        <v>0.0366483663883453</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1908447343.666024</v>
+        <v>2155979166.820951</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09677675474985145</v>
+        <v>0.09936714824684195</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04577157738785152</v>
+        <v>0.04275612584050496</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3566889474.909491</v>
+        <v>3087307259.486935</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1782658874423045</v>
+        <v>0.1357647321337207</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03091901207161234</v>
+        <v>0.02122226661817024</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1691621448.068065</v>
+        <v>2305568621.649715</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1737989537074105</v>
+        <v>0.1453749572758899</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02708639225654252</v>
+        <v>0.02464344032402163</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3799382498.791281</v>
+        <v>5052618182.451704</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1956939005593433</v>
+        <v>0.1811592365927735</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03805210606218517</v>
+        <v>0.04524851469104763</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3698611889.115307</v>
+        <v>3543825379.244773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1624051144581869</v>
+        <v>0.1593029397599267</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04036892306992724</v>
+        <v>0.04989919482244566</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2854594658.412942</v>
+        <v>2458829093.625028</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1498731550355117</v>
+        <v>0.1970021563480472</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04227628465261109</v>
+        <v>0.04216069156554268</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4057759619.470396</v>
+        <v>3515465994.717088</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09860773958009229</v>
+        <v>0.07797690705148543</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02173222697004638</v>
+        <v>0.03015128317548383</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3073861368.781902</v>
+        <v>3350501253.0264</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1704615967843434</v>
+        <v>0.1583600747754316</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02969645586963198</v>
+        <v>0.02739689929939028</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1451719787.922027</v>
+        <v>1553253847.318211</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0742488447864719</v>
+        <v>0.09664767948920029</v>
       </c>
       <c r="G15" t="n">
-        <v>0.041853609458866</v>
+        <v>0.03721857849245798</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1933178951.185716</v>
+        <v>2776838792.776976</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07349007804870986</v>
+        <v>0.1086447948227015</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03774969109605925</v>
+        <v>0.037486985742973</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4516316082.343085</v>
+        <v>4641214002.578881</v>
       </c>
       <c r="F17" t="n">
-        <v>0.113031227240505</v>
+        <v>0.1091790969256992</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03581794172286487</v>
+        <v>0.03630016096540822</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,16 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3565613324.071099</v>
+        <v>3930456215.428962</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1494910257478639</v>
+        <v>0.155513808199044</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03448636139593744</v>
+        <v>0.02345647758072015</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1023162468.977067</v>
+        <v>1040704255.990046</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1529920386987959</v>
+        <v>0.1718562987001616</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02420481787492794</v>
+        <v>0.02489880036002011</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2276060666.655993</v>
+        <v>2570639154.417328</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1419091524115206</v>
+        <v>0.1094890590006743</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0283497907157809</v>
+        <v>0.02606967844989024</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2590430481.84864</v>
+        <v>2644255281.1619</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07283749170396292</v>
+        <v>0.0703283276410856</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03763951705963917</v>
+        <v>0.04411121079203065</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2770674814.571677</v>
+        <v>3103131050.911613</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1205538490209981</v>
+        <v>0.1355606668428703</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04930520031155233</v>
+        <v>0.03939789354923273</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1533882150.742133</v>
+        <v>1364186246.736445</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1510935840487847</v>
+        <v>0.1800195166095508</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04849277163643399</v>
+        <v>0.03913220358709986</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2762060260.155515</v>
+        <v>4144008372.376949</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1212081985494155</v>
+        <v>0.1046979802283866</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03210061242881836</v>
+        <v>0.02992950575097707</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1101201053.559942</v>
+        <v>1082890383.363053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1078961025769614</v>
+        <v>0.07648974346549815</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02767896786084006</v>
+        <v>0.01998103394699301</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>923535132.1139145</v>
+        <v>923965677.5431994</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1084191723069588</v>
+        <v>0.1228672187429794</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03635025311422927</v>
+        <v>0.0287727876209485</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2992222832.686922</v>
+        <v>3892748905.594211</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1289632316318749</v>
+        <v>0.1151015270496318</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02439636455291555</v>
+        <v>0.01816144220770948</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3642545424.834753</v>
+        <v>2739788085.181825</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1171630181010178</v>
+        <v>0.09501176496312792</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03326281710366073</v>
+        <v>0.04401090252788988</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3647392916.818272</v>
+        <v>3946666709.710099</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1287186541443808</v>
+        <v>0.09919123861187509</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04450228328142878</v>
+        <v>0.03274653285496166</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2290627382.191011</v>
+        <v>1789804892.630977</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1107741614369122</v>
+        <v>0.0917938944856455</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03169188988253336</v>
+        <v>0.03987716852693345</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1343672536.919675</v>
+        <v>1054933746.57391</v>
       </c>
       <c r="F31" t="n">
-        <v>0.06759925927917682</v>
+        <v>0.0811185574982701</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0377600294127784</v>
+        <v>0.03942147516754289</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1391427622.429285</v>
+        <v>1563769988.490505</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1189649952147952</v>
+        <v>0.09450854479590123</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02607250860049325</v>
+        <v>0.02678360791130297</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2481391924.922301</v>
+        <v>2839585531.141394</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1643909623361741</v>
+        <v>0.1574006089302626</v>
       </c>
       <c r="G33" t="n">
-        <v>0.06093196446962763</v>
+        <v>0.04861704147925464</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>949561086.7823299</v>
+        <v>1405271535.900953</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1143086030079245</v>
+        <v>0.07896041018373262</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02442010951697209</v>
+        <v>0.02223852050520923</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>838448254.8525199</v>
+        <v>1279502282.022038</v>
       </c>
       <c r="F35" t="n">
-        <v>0.114925871080152</v>
+        <v>0.1127238329154321</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04500342661685817</v>
+        <v>0.03814622649053307</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2893566284.082449</v>
+        <v>2924879447.917428</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1192187792851055</v>
+        <v>0.1382462170309692</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01923344028857787</v>
+        <v>0.02832421534356501</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2066287393.06463</v>
+        <v>2819331339.581243</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09899774484144942</v>
+        <v>0.07831836512139831</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04268112131121487</v>
+        <v>0.03525927999868508</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1636241115.375956</v>
+        <v>1879082059.383195</v>
       </c>
       <c r="F38" t="n">
-        <v>0.105885019307074</v>
+        <v>0.09331366644925622</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03283555880974254</v>
+        <v>0.03854065653971165</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1763297645.464743</v>
+        <v>1884985542.658641</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1585368742172159</v>
+        <v>0.1747783684297113</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02605780727906723</v>
+        <v>0.02812169883583348</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1788326791.024787</v>
+        <v>1489794518.894014</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1143282259537095</v>
+        <v>0.1254964338290614</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05840304890744212</v>
+        <v>0.04133475464612722</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2010698854.319157</v>
+        <v>2212443111.250327</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1417462274241876</v>
+        <v>0.1242959504906927</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04321373847875228</v>
+        <v>0.04303281181973666</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2828698891.476202</v>
+        <v>2796718806.795493</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1223512117560192</v>
+        <v>0.1084501984831534</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03501834034211161</v>
+        <v>0.0438404198214226</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2724462067.299218</v>
+        <v>3057490578.00808</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1895323065409596</v>
+        <v>0.1940344212492553</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02169283903689197</v>
+        <v>0.02075069794703695</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2338757727.958511</v>
+        <v>1838999409.994361</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06737572497044735</v>
+        <v>0.07203028876682627</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02485853454422907</v>
+        <v>0.03548459389356169</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1988782623.845523</v>
+        <v>1776143323.186001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1713485504143855</v>
+        <v>0.1774457135865842</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03818643787655947</v>
+        <v>0.04064984373203295</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4761505665.431642</v>
+        <v>5346158138.671456</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1179660361418332</v>
+        <v>0.1304027350132808</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04415549130373463</v>
+        <v>0.0573796241035967</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4784683535.677327</v>
+        <v>3741967969.04092</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1790790591499927</v>
+        <v>0.1620771913809153</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04615810873381047</v>
+        <v>0.03830810992569247</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3961880443.726554</v>
+        <v>3704802198.508689</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08492558029676089</v>
+        <v>0.06879647599617378</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03703162264438686</v>
+        <v>0.03577897675364993</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1725137597.0287</v>
+        <v>1912155003.19953</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1229474031704576</v>
+        <v>0.144308496921017</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03438040085858704</v>
+        <v>0.02773277679504089</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3402459554.450478</v>
+        <v>3823120923.010935</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1389842785796955</v>
+        <v>0.1500900689363309</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04236005170479838</v>
+        <v>0.04296064242782686</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1262764735.305619</v>
+        <v>1298740083.102288</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1546427985126103</v>
+        <v>0.1226244069346918</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05382883551972676</v>
+        <v>0.04409397172232198</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4412155687.068713</v>
+        <v>5026064531.558126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08636058356893973</v>
+        <v>0.0974570237033599</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04315387178113466</v>
+        <v>0.04845916483749906</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2514518160.05786</v>
+        <v>2779124505.842069</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1738023718643724</v>
+        <v>0.2025969875730436</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02433085062706674</v>
+        <v>0.03049335128146279</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4925723266.703878</v>
+        <v>4386533979.253602</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1267306188624561</v>
+        <v>0.1255237617922935</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05238388973640452</v>
+        <v>0.04498264318171244</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3050229339.532681</v>
+        <v>4556619120.651964</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1436056602504572</v>
+        <v>0.1418639830893999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02770194076653669</v>
+        <v>0.02550536084350134</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1232024106.48725</v>
+        <v>1760977812.688955</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1566466333097694</v>
+        <v>0.1501984967208758</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03563215693664661</v>
+        <v>0.04638519071242201</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3244128046.223754</v>
+        <v>3881229751.350216</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1241050705967207</v>
+        <v>0.1844791383346111</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0178604036586934</v>
+        <v>0.02735697722966282</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1375250035.549718</v>
+        <v>1348113644.576901</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1799498079774013</v>
+        <v>0.1488126933086144</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03834056059270032</v>
+        <v>0.02752041134094962</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3261599234.196702</v>
+        <v>5366891641.34597</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1067178744307848</v>
+        <v>0.0908053335751465</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03560944085713858</v>
+        <v>0.0387600076057408</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2591992553.250096</v>
+        <v>2769584030.264382</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1820753503520945</v>
+        <v>0.186822994535866</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02186502816382528</v>
+        <v>0.02710617794257773</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2243732437.559305</v>
+        <v>2401949033.59715</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1506997168232509</v>
+        <v>0.1791674014852592</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02179672950418541</v>
+        <v>0.02295320811654723</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2098771991.190265</v>
+        <v>1930407426.361041</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1325250795812342</v>
+        <v>0.1563197603463886</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03116719403304108</v>
+        <v>0.03355410662087342</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4567304659.615272</v>
+        <v>3566637147.84578</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06498331686124441</v>
+        <v>0.06732700635984747</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0289866308779534</v>
+        <v>0.03596172568229011</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4078654641.570498</v>
+        <v>3530343268.665213</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1414018331143864</v>
+        <v>0.1610940174943875</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02396694230348874</v>
+        <v>0.02909638118566988</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5436244137.523627</v>
+        <v>4561826074.165848</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1362813784524907</v>
+        <v>0.1050963689312285</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02505832171299299</v>
+        <v>0.03171212820313968</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3946147876.001111</v>
+        <v>4144812915.206144</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1536519804039617</v>
+        <v>0.1123012195564441</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04919025234154971</v>
+        <v>0.05031483238057149</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2282970338.585585</v>
+        <v>3145958253.222297</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07256403842029431</v>
+        <v>0.09997519391954852</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04351322729945714</v>
+        <v>0.05118396548065336</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5550166299.792178</v>
+        <v>5839221021.508983</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1147101693646262</v>
+        <v>0.134677942663685</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04087640750291036</v>
+        <v>0.03417094031957367</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2374510044.863802</v>
+        <v>1706303206.391487</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1405875936842984</v>
+        <v>0.1562814243797178</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05966011864910929</v>
+        <v>0.0584151093103441</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2792580872.111128</v>
+        <v>3233562922.23594</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0725632096075908</v>
+        <v>0.08025102230886105</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03627007695928819</v>
+        <v>0.04737459758138323</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4771266272.335525</v>
+        <v>3937093354.803062</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1720615070147721</v>
+        <v>0.114833642947426</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02578726100758926</v>
+        <v>0.02307991888383248</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2272348148.760769</v>
+        <v>1560474418.940635</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09868548922717667</v>
+        <v>0.0657225855324204</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0498480175958006</v>
+        <v>0.04216451553173536</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2340714690.254939</v>
+        <v>3206892599.022158</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1038904102069248</v>
+        <v>0.08312157670359697</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0428001143181309</v>
+        <v>0.03628095248619495</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3476097947.571762</v>
+        <v>3114686941.799356</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1538073044680658</v>
+        <v>0.1521514439654449</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03233959384519977</v>
+        <v>0.03299070173405156</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2084604187.907614</v>
+        <v>2121519395.55855</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1482457551475021</v>
+        <v>0.1040419967677036</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03478780602411881</v>
+        <v>0.02494200937730758</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3330798284.528193</v>
+        <v>3855788133.021263</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09759165853205243</v>
+        <v>0.121114145875339</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03244331348460246</v>
+        <v>0.02497187356350623</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2246325434.962226</v>
+        <v>1588067344.053007</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1587800004632027</v>
+        <v>0.1329459003124223</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01955912776718539</v>
+        <v>0.01944808036747812</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3782861183.71735</v>
+        <v>3633953273.707513</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1371890355657529</v>
+        <v>0.1186085814114664</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03777127816157334</v>
+        <v>0.03998756614317523</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1622374016.843514</v>
+        <v>1924354597.523309</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1417637539376064</v>
+        <v>0.1357863347320249</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03121278239366339</v>
+        <v>0.0299356280173808</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5048466290.570925</v>
+        <v>4738505510.340381</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07965539384689413</v>
+        <v>0.08528815533467737</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03694950351465354</v>
+        <v>0.0315428435106706</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3503460672.127611</v>
+        <v>4127695841.111772</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08352919264469533</v>
+        <v>0.09076389939905412</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02760191175216434</v>
+        <v>0.03277369258372823</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3610884168.465743</v>
+        <v>5206721961.168468</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2025425955202881</v>
+        <v>0.1439441585450635</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02946526833010365</v>
+        <v>0.02713427960871868</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1885972563.392144</v>
+        <v>1849219142.491709</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1269670628158673</v>
+        <v>0.1185852849533053</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04344346067477756</v>
+        <v>0.02974841563455363</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2022293041.363543</v>
+        <v>2362308847.3347</v>
       </c>
       <c r="F84" t="n">
-        <v>0.113554509485734</v>
+        <v>0.08125338206034748</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04801729697631465</v>
+        <v>0.03673437447503595</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,16 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3173112247.985492</v>
+        <v>2834516331.110622</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1773096344824572</v>
+        <v>0.1287826923574696</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03670496504472424</v>
+        <v>0.05579621308445556</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1691170411.251753</v>
+        <v>2428944567.544403</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1697665944730485</v>
+        <v>0.1586319822525427</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02158388495197611</v>
+        <v>0.02415559532276095</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1237533447.609218</v>
+        <v>1360807471.788549</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1871966463941281</v>
+        <v>0.1897453272899547</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04162350250546438</v>
+        <v>0.0349361464428182</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3193037716.818972</v>
+        <v>2668584372.315881</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1302952293461592</v>
+        <v>0.1482413999435266</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03500182801284889</v>
+        <v>0.03323414870306509</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3007736333.406355</v>
+        <v>2210464786.677731</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1427705366170598</v>
+        <v>0.09914114046936268</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04065096919909344</v>
+        <v>0.03540550051024363</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1329377842.461214</v>
+        <v>1924931760.139066</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1263530468783235</v>
+        <v>0.1020262786207329</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04649435137701358</v>
+        <v>0.0423695373513904</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1950243310.895231</v>
+        <v>1630797916.768802</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1305619266707504</v>
+        <v>0.1295965373281062</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05384219869010854</v>
+        <v>0.04882883391458327</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2203055553.925585</v>
+        <v>2965405020.861421</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06697616056983195</v>
+        <v>0.1001269814426083</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03356815630164184</v>
+        <v>0.0345476879598943</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4036395377.103082</v>
+        <v>4619778758.102331</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1382476957235067</v>
+        <v>0.1322572523884588</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03711517757121697</v>
+        <v>0.04956783774211938</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1733533985.463397</v>
+        <v>1589581669.43398</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1282162431711415</v>
+        <v>0.1078257314814496</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03346531854308545</v>
+        <v>0.03147041731099749</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,16 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3252888801.017961</v>
+        <v>3185358780.769821</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1186146386199605</v>
+        <v>0.1069184592143301</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04053940677037969</v>
+        <v>0.03874349790110011</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2056650815.726779</v>
+        <v>1528544139.180386</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1178343241777289</v>
+        <v>0.1052245630477568</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02885955278029477</v>
+        <v>0.03102438192699813</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4049256544.140062</v>
+        <v>3512770519.886249</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1289301389537232</v>
+        <v>0.1366547924496304</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02215108389438929</v>
+        <v>0.01758904667845773</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3315495105.936512</v>
+        <v>3684337748.345569</v>
       </c>
       <c r="F98" t="n">
-        <v>0.119924979881139</v>
+        <v>0.1085930362836058</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02041703514032455</v>
+        <v>0.02032451901361561</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2831847968.240033</v>
+        <v>3104271137.213209</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1319836550881962</v>
+        <v>0.09015310946774169</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02295408456963287</v>
+        <v>0.02164110264725689</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3578592394.477774</v>
+        <v>2954162175.509223</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1523387030459517</v>
+        <v>0.1569247878191586</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02629448671594668</v>
+        <v>0.01949317767249975</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2493530382.383334</v>
+        <v>2221189802.067064</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1623607758178082</v>
+        <v>0.1586117794037159</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04823563237573826</v>
+        <v>0.04834347962198793</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_266.xlsx
+++ b/output/fit_clients/fit_round_266.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2307299981.999828</v>
+        <v>1652276965.273466</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0944458301030295</v>
+        <v>0.08847874247170133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03057039478796623</v>
+        <v>0.03378251424867142</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2019239186.874041</v>
+        <v>2601402420.606791</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1584038982008777</v>
+        <v>0.128983692750977</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04767297742928874</v>
+        <v>0.03388451413449631</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5147343589.862838</v>
+        <v>4950048474.864408</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1023446462097626</v>
+        <v>0.1305867719508909</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03160512594346435</v>
+        <v>0.02954264534401198</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>265</v>
+      </c>
+      <c r="K4" t="n">
+        <v>92.71048334167162</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4115615132.411767</v>
+        <v>3032349900.924299</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09074367692377462</v>
+        <v>0.09815026591198321</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0376076562041807</v>
+        <v>0.0439743018987622</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2595150417.285065</v>
+        <v>1796385559.37269</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1055942082266007</v>
+        <v>0.1213021423231724</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0366483663883453</v>
+        <v>0.04760329403241577</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2155979166.820951</v>
+        <v>2335248577.837808</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09936714824684195</v>
+        <v>0.1007766364057502</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04275612584050496</v>
+        <v>0.04685329789996866</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3087307259.486935</v>
+        <v>3488469480.144605</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1357647321337207</v>
+        <v>0.1480093983181917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02122226661817024</v>
+        <v>0.02693650603655027</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2305568621.649715</v>
+        <v>1404158613.244369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1453749572758899</v>
+        <v>0.1322565869256274</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02464344032402163</v>
+        <v>0.03611765200214483</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5052618182.451704</v>
+        <v>4094081999.518615</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1811592365927735</v>
+        <v>0.2001291731599424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04524851469104763</v>
+        <v>0.04225122373164478</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>241</v>
+      </c>
+      <c r="J10" t="n">
+        <v>265</v>
+      </c>
+      <c r="K10" t="n">
+        <v>95.02454168286523</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3543825379.244773</v>
+        <v>3159072184.354399</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1593029397599267</v>
+        <v>0.1231728447167274</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04989919482244566</v>
+        <v>0.04290992408645233</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>109</v>
+      </c>
+      <c r="J11" t="n">
+        <v>265</v>
+      </c>
+      <c r="K11" t="n">
+        <v>61.70163755387114</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2458829093.625028</v>
+        <v>2827212562.473783</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1970021563480472</v>
+        <v>0.1851289631598658</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04216069156554268</v>
+        <v>0.05166817347976831</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3515465994.717088</v>
+        <v>3430232114.378795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07797690705148543</v>
+        <v>0.09694405940939763</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03015128317548383</v>
+        <v>0.02434612766947152</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>135</v>
+      </c>
+      <c r="J13" t="n">
+        <v>265</v>
+      </c>
+      <c r="K13" t="n">
+        <v>66.64733951715435</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3350501253.0264</v>
+        <v>3001715523.563975</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1583600747754316</v>
+        <v>0.1778621323585835</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02739689929939028</v>
+        <v>0.03013955608123364</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>53</v>
+      </c>
+      <c r="J14" t="n">
+        <v>262</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1553253847.318211</v>
+        <v>1734439417.443902</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09664767948920029</v>
+        <v>0.08291419797781789</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03721857849245798</v>
+        <v>0.04464766290145325</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2776838792.776976</v>
+        <v>2174755692.741274</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1086447948227015</v>
+        <v>0.09042052776050541</v>
       </c>
       <c r="G16" t="n">
-        <v>0.037486985742973</v>
+        <v>0.03938081943283398</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1034,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4641214002.578881</v>
+        <v>5260692776.259933</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1091790969256992</v>
+        <v>0.1089907758616752</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03630016096540822</v>
+        <v>0.04715635865179776</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>127</v>
+      </c>
+      <c r="J17" t="n">
+        <v>266</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3930456215.428962</v>
+        <v>3198379543.520237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.155513808199044</v>
+        <v>0.1466945869685153</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02345647758072015</v>
+        <v>0.02919002669631019</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>66</v>
+      </c>
+      <c r="J18" t="n">
+        <v>263</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1104,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1040704255.990046</v>
+        <v>1174878264.054528</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1718562987001616</v>
+        <v>0.1182451354359159</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02489880036002011</v>
+        <v>0.02650542402370952</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2570639154.417328</v>
+        <v>1950829255.803002</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1094890590006743</v>
+        <v>0.1336804427773106</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02606967844989024</v>
+        <v>0.01969455036739285</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2644255281.1619</v>
+        <v>2425536128.116726</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0703283276410856</v>
+        <v>0.0672835809701979</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04411121079203065</v>
+        <v>0.04316366298373697</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3103131050.911613</v>
+        <v>2773569057.228601</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1355606668428703</v>
+        <v>0.1140318701909942</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03939789354923273</v>
+        <v>0.05078892556512447</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>69</v>
+      </c>
+      <c r="J22" t="n">
+        <v>265</v>
+      </c>
+      <c r="K22" t="n">
+        <v>41.61525647931803</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1364186246.736445</v>
+        <v>1195008074.104945</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1800195166095508</v>
+        <v>0.1691532405417036</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03913220358709986</v>
+        <v>0.04310408766651953</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4144008372.376949</v>
+        <v>3762823950.152893</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1046979802283866</v>
+        <v>0.1327897124204244</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02992950575097707</v>
+        <v>0.03429321591981293</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>80</v>
+      </c>
+      <c r="J24" t="n">
+        <v>266</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1082890383.363053</v>
+        <v>1230934013.220707</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07648974346549815</v>
+        <v>0.1213779242796402</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01998103394699301</v>
+        <v>0.02788749321698525</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>923965677.5431994</v>
+        <v>1271086236.061667</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1228672187429794</v>
+        <v>0.09264196692017129</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0287727876209485</v>
+        <v>0.03601262787682785</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3892748905.594211</v>
+        <v>4332229992.889741</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1151015270496318</v>
+        <v>0.09842903517521373</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01816144220770948</v>
+        <v>0.02385781487254184</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>109</v>
+      </c>
+      <c r="J27" t="n">
+        <v>265</v>
+      </c>
+      <c r="K27" t="n">
+        <v>87.07302927209358</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2739788085.181825</v>
+        <v>3242374251.558939</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09501176496312792</v>
+        <v>0.1280767224750004</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04401090252788988</v>
+        <v>0.04504468468803643</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>54</v>
+      </c>
+      <c r="J28" t="n">
+        <v>263</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3946666709.710099</v>
+        <v>5827015139.337424</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09919123861187509</v>
+        <v>0.1308123705708469</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03274653285496166</v>
+        <v>0.04596497931984721</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>254</v>
+      </c>
+      <c r="J29" t="n">
+        <v>266</v>
+      </c>
+      <c r="K29" t="n">
+        <v>101.7999960851249</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1789804892.630977</v>
+        <v>2126219432.68033</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0917938944856455</v>
+        <v>0.1288039657898863</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03987716852693345</v>
+        <v>0.03489408246237324</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1054933746.57391</v>
+        <v>1432440953.783344</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0811185574982701</v>
+        <v>0.07304718329739861</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03942147516754289</v>
+        <v>0.03615389594326453</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1563769988.490505</v>
+        <v>1761308748.900751</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09450854479590123</v>
+        <v>0.1154573364649046</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02678360791130297</v>
+        <v>0.03586397934189505</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2839585531.141394</v>
+        <v>2239305826.796838</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1574006089302626</v>
+        <v>0.1670872655845479</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04861704147925464</v>
+        <v>0.03766242272146813</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1405271535.900953</v>
+        <v>1210413006.42396</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07896041018373262</v>
+        <v>0.08174680657694344</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02223852050520923</v>
+        <v>0.02653222570033349</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1670,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1279502282.022038</v>
+        <v>1217314792.14328</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1127238329154321</v>
+        <v>0.09068755636795707</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03814622649053307</v>
+        <v>0.04044621100795805</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2924879447.917428</v>
+        <v>2034591597.651709</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1382462170309692</v>
+        <v>0.1721851878817435</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02832421534356501</v>
+        <v>0.02881496371006874</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2819331339.581243</v>
+        <v>2667346359.065915</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07831836512139831</v>
+        <v>0.06808150761934298</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03525927999868508</v>
+        <v>0.02958375359429075</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1879082059.383195</v>
+        <v>2028997950.433087</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09331366644925622</v>
+        <v>0.09105946976517244</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03854065653971165</v>
+        <v>0.02986659277002309</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1884985542.658641</v>
+        <v>1545539813.274214</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1747783684297113</v>
+        <v>0.1827079578879636</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02812169883583348</v>
+        <v>0.02330076521740481</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1489794518.894014</v>
+        <v>1692825973.314301</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1254964338290614</v>
+        <v>0.156027703409838</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04133475464612722</v>
+        <v>0.04498964464890083</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2212443111.250327</v>
+        <v>2163345572.347296</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1242959504906927</v>
+        <v>0.1440830902259871</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04303281181973666</v>
+        <v>0.04262829332716903</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1915,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2796718806.795493</v>
+        <v>3236586767.378459</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1084501984831534</v>
+        <v>0.1192194477896652</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0438404198214226</v>
+        <v>0.03357289715188396</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>112</v>
+      </c>
+      <c r="J42" t="n">
+        <v>265</v>
+      </c>
+      <c r="K42" t="n">
+        <v>63.05946190307449</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1952,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3057490578.00808</v>
+        <v>2435294332.129045</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1940344212492553</v>
+        <v>0.1465065716546364</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02075069794703695</v>
+        <v>0.022070025292758</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1981,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1838999409.994361</v>
+        <v>1901865377.077764</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07203028876682627</v>
+        <v>0.09411610213286115</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03548459389356169</v>
+        <v>0.02951024282044875</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1776143323.186001</v>
+        <v>2118626113.955757</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1774457135865842</v>
+        <v>0.1379359560587447</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04064984373203295</v>
+        <v>0.04986462068093144</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2051,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5346158138.671456</v>
+        <v>4851079006.972443</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1304027350132808</v>
+        <v>0.1157776298478982</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0573796241035967</v>
+        <v>0.05448063288990166</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>155</v>
+      </c>
+      <c r="J46" t="n">
+        <v>266</v>
+      </c>
+      <c r="K46" t="n">
+        <v>97.46967496638862</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2088,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3741967969.04092</v>
+        <v>3199398331.874948</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1620771913809153</v>
+        <v>0.1431542472329352</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03830810992569247</v>
+        <v>0.04432774225083269</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>120</v>
+      </c>
+      <c r="J47" t="n">
+        <v>264</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3704802198.508689</v>
+        <v>4568426457.128434</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06879647599617378</v>
+        <v>0.09469542744418985</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03577897675364993</v>
+        <v>0.03109612322326473</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>131</v>
+      </c>
+      <c r="J48" t="n">
+        <v>266</v>
+      </c>
+      <c r="K48" t="n">
+        <v>103.9561774793234</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2160,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1912155003.19953</v>
+        <v>1547625152.23401</v>
       </c>
       <c r="F49" t="n">
-        <v>0.144308496921017</v>
+        <v>0.1784519699768962</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02773277679504089</v>
+        <v>0.0384073094806054</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3823120923.010935</v>
+        <v>4043052037.922877</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1500900689363309</v>
+        <v>0.1377042607696934</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04296064242782686</v>
+        <v>0.03445008991752928</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>84</v>
+      </c>
+      <c r="J50" t="n">
+        <v>266</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298740083.102288</v>
+        <v>1423232596.81757</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1226244069346918</v>
+        <v>0.1269306285791489</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04409397172232198</v>
+        <v>0.04711569427864034</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2265,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5026064531.558126</v>
+        <v>4879174031.799602</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0974570237033599</v>
+        <v>0.1012136279909978</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04845916483749906</v>
+        <v>0.06107533939792698</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>169</v>
+      </c>
+      <c r="J52" t="n">
+        <v>265</v>
+      </c>
+      <c r="K52" t="n">
+        <v>93.48598284529496</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2302,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2779124505.842069</v>
+        <v>2297919666.847052</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2025969875730436</v>
+        <v>0.1456111454630367</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03049335128146279</v>
+        <v>0.02920069591999597</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>37</v>
+      </c>
+      <c r="J53" t="n">
+        <v>265</v>
+      </c>
+      <c r="K53" t="n">
+        <v>29.78662185249212</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2339,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4386533979.253602</v>
+        <v>3635864844.880554</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1255237617922935</v>
+        <v>0.1474755526854593</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04498264318171244</v>
+        <v>0.03707234928623362</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>140</v>
+      </c>
+      <c r="J54" t="n">
+        <v>266</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2374,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4556619120.651964</v>
+        <v>3968375764.680295</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1418639830893999</v>
+        <v>0.2140672088984185</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02550536084350134</v>
+        <v>0.02485780058848329</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>119</v>
+      </c>
+      <c r="J55" t="n">
+        <v>266</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2409,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1760977812.688955</v>
+        <v>1535261451.336437</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1501984967208758</v>
+        <v>0.1013111329751849</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04638519071242201</v>
+        <v>0.03567524106097904</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2450,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3881229751.350216</v>
+        <v>4494941977.237196</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1844791383346111</v>
+        <v>0.1729018899561132</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02735697722966282</v>
+        <v>0.01926149542492744</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>106</v>
+      </c>
+      <c r="J57" t="n">
+        <v>266</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1348113644.576901</v>
+        <v>1733240346.720909</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1488126933086144</v>
+        <v>0.1936132837732295</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02752041134094962</v>
+        <v>0.03814109835314061</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5366891641.34597</v>
+        <v>3749367675.16194</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0908053335751465</v>
+        <v>0.102440980012393</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0387600076057408</v>
+        <v>0.04280545605014855</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>128</v>
+      </c>
+      <c r="J59" t="n">
+        <v>266</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2769584030.264382</v>
+        <v>3093857424.453568</v>
       </c>
       <c r="F60" t="n">
-        <v>0.186822994535866</v>
+        <v>0.1915715290443739</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02710617794257773</v>
+        <v>0.02306463566702603</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>40</v>
+      </c>
+      <c r="J60" t="n">
+        <v>264</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2401949033.59715</v>
+        <v>3075172653.233518</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1791674014852592</v>
+        <v>0.1535341723910596</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02295320811654723</v>
+        <v>0.02036656685996832</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1930407426.361041</v>
+        <v>1762605290.048433</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1563197603463886</v>
+        <v>0.1808511561692703</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03355410662087342</v>
+        <v>0.03487051884043428</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3566637147.84578</v>
+        <v>5347426487.291375</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06732700635984747</v>
+        <v>0.07330103142871246</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03596172568229011</v>
+        <v>0.03040347910770446</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>129</v>
+      </c>
+      <c r="J63" t="n">
+        <v>266</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3530343268.665213</v>
+        <v>4649378929.708125</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1610940174943875</v>
+        <v>0.1410084278760104</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02909638118566988</v>
+        <v>0.03448686562526918</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>131</v>
+      </c>
+      <c r="J64" t="n">
+        <v>265</v>
+      </c>
+      <c r="K64" t="n">
+        <v>93.01974656829866</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2726,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4561826074.165848</v>
+        <v>5671620766.003208</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1050963689312285</v>
+        <v>0.123364335375102</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03171212820313968</v>
+        <v>0.02884525397942534</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>213</v>
+      </c>
+      <c r="J65" t="n">
+        <v>266</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4144812915.206144</v>
+        <v>5460813520.818498</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1123012195564441</v>
+        <v>0.1569138978235666</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05031483238057149</v>
+        <v>0.03593129755587209</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>131</v>
+      </c>
+      <c r="J66" t="n">
+        <v>266</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3145958253.222297</v>
+        <v>2194931488.527156</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09997519391954852</v>
+        <v>0.08897564734591057</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05118396548065336</v>
+        <v>0.05067482311941136</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5839221021.508983</v>
+        <v>5418553696.110353</v>
       </c>
       <c r="F68" t="n">
-        <v>0.134677942663685</v>
+        <v>0.1080710455778312</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03417094031957367</v>
+        <v>0.04259661161107118</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>136</v>
+      </c>
+      <c r="J68" t="n">
+        <v>266</v>
+      </c>
+      <c r="K68" t="n">
+        <v>96.76947152021469</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1706303206.391487</v>
+        <v>2363669212.713044</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1562814243797178</v>
+        <v>0.1525265717710427</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0584151093103441</v>
+        <v>0.05548783871917649</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3233562922.23594</v>
+        <v>3034865394.647234</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08025102230886105</v>
+        <v>0.06433018469701095</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04737459758138323</v>
+        <v>0.04071189124968441</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3937093354.803062</v>
+        <v>4971488224.929247</v>
       </c>
       <c r="F71" t="n">
-        <v>0.114833642947426</v>
+        <v>0.1857766552933046</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02307991888383248</v>
+        <v>0.0336288869394732</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>201</v>
+      </c>
+      <c r="J71" t="n">
+        <v>266</v>
+      </c>
+      <c r="K71" t="n">
+        <v>96.73326802965283</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1560474418.940635</v>
+        <v>1593820734.585156</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0657225855324204</v>
+        <v>0.09786332915294378</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04216451553173536</v>
+        <v>0.05080786920367575</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3206892599.022158</v>
+        <v>2893410428.646697</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08312157670359697</v>
+        <v>0.1094701317805819</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03628095248619495</v>
+        <v>0.0450578507505548</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3114686941.799356</v>
+        <v>3024483587.849926</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1521514439654449</v>
+        <v>0.1627243774575054</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03299070173405156</v>
+        <v>0.03142354026549026</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>74</v>
+      </c>
+      <c r="J74" t="n">
+        <v>264</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2121519395.55855</v>
+        <v>1948864971.113727</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1040419967677036</v>
+        <v>0.1389461608612325</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02494200937730758</v>
+        <v>0.02834464140867082</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3855788133.021263</v>
+        <v>5211437091.201608</v>
       </c>
       <c r="F76" t="n">
-        <v>0.121114145875339</v>
+        <v>0.1208235684358733</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02497187356350623</v>
+        <v>0.03136176824951423</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>124</v>
+      </c>
+      <c r="J76" t="n">
+        <v>266</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1588067344.053007</v>
+        <v>1874190098.884977</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1329459003124223</v>
+        <v>0.1787808632472323</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01944808036747812</v>
+        <v>0.0309476502075719</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3633953273.707513</v>
+        <v>3593038475.313545</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1186085814114664</v>
+        <v>0.1091136975490569</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03998756614317523</v>
+        <v>0.03925795075209836</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>133</v>
+      </c>
+      <c r="J78" t="n">
+        <v>266</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1924354597.523309</v>
+        <v>1737806992.160252</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1357863347320249</v>
+        <v>0.1624233518791254</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0299356280173808</v>
+        <v>0.02999204312054023</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4738505510.340381</v>
+        <v>3498766558.293127</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08528815533467737</v>
+        <v>0.110873137759386</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0315428435106706</v>
+        <v>0.0334623178125812</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>130</v>
+      </c>
+      <c r="J80" t="n">
+        <v>265</v>
+      </c>
+      <c r="K80" t="n">
+        <v>51.21923902044073</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4127695841.111772</v>
+        <v>4155094322.010933</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09076389939905412</v>
+        <v>0.09726886815651273</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03277369258372823</v>
+        <v>0.03266515782706538</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>122</v>
+      </c>
+      <c r="J81" t="n">
+        <v>265</v>
+      </c>
+      <c r="K81" t="n">
+        <v>84.49977084918979</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5206721961.168468</v>
+        <v>4459463732.508317</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1439441585450635</v>
+        <v>0.1430303168362544</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02713427960871868</v>
+        <v>0.01851621033727147</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>198</v>
+      </c>
+      <c r="J82" t="n">
+        <v>266</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1849219142.491709</v>
+        <v>1991909410.687419</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1185852849533053</v>
+        <v>0.1312061316574404</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02974841563455363</v>
+        <v>0.03252679696469712</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2362308847.3347</v>
+        <v>2574242381.387142</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08125338206034748</v>
+        <v>0.07862504169966276</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03673437447503595</v>
+        <v>0.05084477545180105</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2834516331.110622</v>
+        <v>3169267451.77959</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1287826923574696</v>
+        <v>0.1403650657114117</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05579621308445556</v>
+        <v>0.04964204843456658</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>37</v>
+      </c>
+      <c r="J85" t="n">
+        <v>265</v>
+      </c>
+      <c r="K85" t="n">
+        <v>67.08380673034904</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2428944567.544403</v>
+        <v>2603576753.604429</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1586319822525427</v>
+        <v>0.1140262418151082</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02415559532276095</v>
+        <v>0.02632987473342456</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1360807471.788549</v>
+        <v>1060751547.211239</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1897453272899547</v>
+        <v>0.1390247415983529</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0349361464428182</v>
+        <v>0.04323634900496657</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2668584372.315881</v>
+        <v>3567096538.596913</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1482413999435266</v>
+        <v>0.175556333778902</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03323414870306509</v>
+        <v>0.03995058511681012</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2210464786.677731</v>
+        <v>3317160725.484697</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09914114046936268</v>
+        <v>0.1460239442434672</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03540550051024363</v>
+        <v>0.04055033630258233</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1924931760.139066</v>
+        <v>1575499273.079356</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1020262786207329</v>
+        <v>0.1007778159527653</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0423695373513904</v>
+        <v>0.05322785369340653</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1630797916.768802</v>
+        <v>1291699418.224833</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1295965373281062</v>
+        <v>0.119045040652758</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04882883391458327</v>
+        <v>0.04857361808799687</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2965405020.861421</v>
+        <v>2346007272.31643</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1001269814426083</v>
+        <v>0.07967822764441559</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0345476879598943</v>
+        <v>0.04335126406686439</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4619778758.102331</v>
+        <v>3042145015.974637</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1322572523884588</v>
+        <v>0.09462051815168659</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04956783774211938</v>
+        <v>0.05242849718905586</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>116</v>
+      </c>
+      <c r="J93" t="n">
+        <v>264</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1589581669.43398</v>
+        <v>2232417687.787243</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1078257314814496</v>
+        <v>0.1470307972511383</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03147041731099749</v>
+        <v>0.03414440266599662</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3185358780.769821</v>
+        <v>2031181617.6776</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1069184592143301</v>
+        <v>0.08476848392698733</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03874349790110011</v>
+        <v>0.03700976375854356</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1528544139.180386</v>
+        <v>1775029739.587524</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1052245630477568</v>
+        <v>0.09958755788710495</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03102438192699813</v>
+        <v>0.03487586440630404</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3856,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3512770519.886249</v>
+        <v>3916125917.75491</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1366547924496304</v>
+        <v>0.1238190743324967</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01758904667845773</v>
+        <v>0.02207201112256564</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>131</v>
+      </c>
+      <c r="J97" t="n">
+        <v>266</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3891,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3684337748.345569</v>
+        <v>3782538733.491304</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1085930362836058</v>
+        <v>0.1203177833997013</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02032451901361561</v>
+        <v>0.03207964272399104</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>64</v>
+      </c>
+      <c r="J98" t="n">
+        <v>266</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3926,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3104271137.213209</v>
+        <v>2842550084.534762</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09015310946774169</v>
+        <v>0.1402575404332605</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02164110264725689</v>
+        <v>0.03500088740477126</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3961,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2954162175.509223</v>
+        <v>4175933965.790183</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1569247878191586</v>
+        <v>0.1387976192153532</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01949317767249975</v>
+        <v>0.02694041693044377</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>112</v>
+      </c>
+      <c r="J100" t="n">
+        <v>265</v>
+      </c>
+      <c r="K100" t="n">
+        <v>95.54339628896112</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2221189802.067064</v>
+        <v>3099602821.704891</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1586117794037159</v>
+        <v>0.1637263582905787</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04834347962198793</v>
+        <v>0.04598265140048022</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>21</v>
+      </c>
+      <c r="J101" t="n">
+        <v>265</v>
+      </c>
+      <c r="K101" t="n">
+        <v>61.16324334054393</v>
       </c>
     </row>
   </sheetData>
